--- a/XO/bitmap for XO.xlsx
+++ b/XO/bitmap for XO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksejivankin/Мои документы/Кодинг/Arduino/xo/XO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E60C3A2D-86E8-1342-82B7-EA5B9ECBCDB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF656305-8E92-8F4D-8CD6-97324C8A86D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10380" yWindow="2080" windowWidth="28240" windowHeight="17560" xr2:uid="{660489A9-9A62-D04A-8DB7-E61B9217079B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="12">
   <si>
     <t>0x0000,</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Ничья</t>
+  </si>
+  <si>
+    <t>Цифры для счета</t>
   </si>
 </sst>
 </file>
@@ -413,9 +416,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E393304-2884-A344-8770-DDE6F02C5966}">
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A67" sqref="A67:P82"/>
     </sheetView>
   </sheetViews>
@@ -3104,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
@@ -3113,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -3125,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
         <v>0</v>
@@ -3134,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" t="s">
         <v>0</v>
@@ -3143,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="O69" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69" t="s">
         <v>1</v>
@@ -3166,13 +3169,13 @@
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="s">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="s">
         <v>0</v>
@@ -3181,10 +3184,10 @@
         <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="s">
         <v>1</v>
@@ -3222,10 +3225,10 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
         <v>1</v>
@@ -3234,13 +3237,13 @@
         <v>1</v>
       </c>
       <c r="L71" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71" t="s">
         <v>1</v>
@@ -3260,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="s">
         <v>1</v>
@@ -3275,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="s">
         <v>1</v>
@@ -3287,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="M72" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72" t="s">
         <v>0</v>
@@ -3304,19 +3307,19 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="s">
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="s">
         <v>0</v>
@@ -3325,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
         <v>0</v>
@@ -3334,16 +3337,16 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73" t="s">
         <v>0</v>
       </c>
       <c r="O73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P73" t="s">
         <v>1</v>
@@ -3354,28 +3357,28 @@
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="s">
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
         <v>0</v>
@@ -3384,16 +3387,16 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74" t="s">
         <v>0</v>
       </c>
       <c r="O74" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P74" t="s">
         <v>1</v>
@@ -3404,46 +3407,46 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="s">
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="s">
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="s">
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N75" t="s">
         <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P75" t="s">
         <v>1</v>
@@ -3454,46 +3457,46 @@
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="s">
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="s">
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="s">
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N76" t="s">
         <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P76" t="s">
         <v>1</v>
@@ -3504,28 +3507,28 @@
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="s">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="s">
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="s">
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
         <v>0</v>
@@ -3534,16 +3537,16 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77" t="s">
         <v>0</v>
       </c>
       <c r="O77" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P77" t="s">
         <v>1</v>
@@ -3554,28 +3557,28 @@
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="s">
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="s">
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="s">
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>0</v>
@@ -3584,16 +3587,16 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M78" t="s">
         <v>0</v>
       </c>
       <c r="N78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P78" t="s">
         <v>1</v>
@@ -3604,28 +3607,28 @@
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="s">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" t="s">
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>0</v>
@@ -3634,13 +3637,13 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N79" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79" t="s">
         <v>0</v>
@@ -3799,8 +3802,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A85:P85"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="A27:P27"/>
